--- a/QuantLibXL/Data2/XLS/GBP/GBP_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/GBP/GBP_YCSTDBootstrapping.xlsx
@@ -1655,9 +1655,7 @@
       <c r="C5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="21">
-        <v>42278.640648148146</v>
-      </c>
+      <c r="D5" s="21"/>
       <c r="E5" s="80"/>
     </row>
     <row r="6" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1724,7 +1722,7 @@
       </c>
       <c r="D12" s="13">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="E12" s="80"/>
     </row>
@@ -1735,7 +1733,7 @@
       </c>
       <c r="D13" s="15">
         <f>_xll.qlCalendarAdvance(Calendar,Evaluationdate,"0D","F",,Trigger)</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="E13" s="80"/>
     </row>
@@ -1767,8 +1765,8 @@
         <v>9</v>
       </c>
       <c r="D18" s="41" t="str">
-        <f>_xll.qlPiecewiseYieldCurve(D20,D21,Calendar,_xll.ohPack(RateHelpersSTD),,,,D22,D23,D24,Permanent,,ObjectOverwrite)</f>
-        <v>_GBPSTD#0000</v>
+        <f>_xll.qlPiecewiseYieldCurve(D20,D21,Calendar,_xll.ohPack(RateHelpersSTD),,,,D22,D23,D24,,Permanent,,ObjectOverwrite)</f>
+        <v>_GBPSTD#0002</v>
       </c>
       <c r="E18" s="42"/>
     </row>
@@ -1846,7 +1844,7 @@
       <c r="B26" s="23"/>
       <c r="C26" s="32">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve_STD)</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="D26" s="33">
         <f>_xll.qlYieldTSDiscount(YieldCurve_STD,C26,,Trigger)</f>
@@ -1859,11 +1857,11 @@
       <c r="B27" s="23"/>
       <c r="C27" s="34">
         <f>_xll.qlTermStructureMaxDate(YieldCurve_STD,Trigger)</f>
-        <v>64200</v>
+        <v>64221</v>
       </c>
       <c r="D27" s="35">
         <f>_xll.qlYieldTSDiscount(YieldCurve_STD,C27,,Trigger)</f>
-        <v>0.30871717939778753</v>
+        <v>0.30283447228094346</v>
       </c>
       <c r="E27" s="42"/>
     </row>
@@ -1934,7 +1932,7 @@
   <dimension ref="A1:AH127"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2078,7 +2076,7 @@
       </c>
       <c r="AC2" s="155">
         <f t="array" ref="AC2:AC89">_xll.qlPiecewiseYieldCurveData(YieldCurve_STD,Trigger)</f>
-        <v>4.8124682740494128E-3</v>
+        <v>4.8124682740494111E-3</v>
       </c>
       <c r="AE2" s="161" t="s">
         <v>71</v>
@@ -2102,7 +2100,7 @@
       <c r="F3" s="120"/>
       <c r="G3" s="109" t="str">
         <f>_xll.qlLibor(,Currency,C3,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00358#0000</v>
+        <v>obj_0032e#0001</v>
       </c>
       <c r="H3" s="117" t="str">
         <f t="shared" ref="H3:H11" si="1">Currency&amp;$B3&amp;"D"&amp;$H$1&amp;QuoteSuffix</f>
@@ -2111,7 +2109,7 @@
       <c r="I3" s="120"/>
       <c r="J3" s="110" t="str">
         <f>_xll.qlDepositRateHelper(,H3,G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00372#0000</v>
+        <v>obj_00344#0001</v>
       </c>
       <c r="K3" s="49"/>
       <c r="L3" s="66" t="str">
@@ -2120,7 +2118,7 @@
       </c>
       <c r="M3" s="128" t="str">
         <f>IF(ISBLANK(J3),"--",J3)</f>
-        <v>obj_00372#0000</v>
+        <v>obj_00344#0001</v>
       </c>
       <c r="N3" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M3,Trigger),"--")</f>
@@ -2128,7 +2126,7 @@
       </c>
       <c r="O3" s="130">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M3,Trigger),"--")</f>
-        <v>4.8125000000000008E-3</v>
+        <v>4.8124999999999999E-3</v>
       </c>
       <c r="P3" s="129" t="b">
         <v>1</v>
@@ -2141,11 +2139,11 @@
       </c>
       <c r="S3" s="131">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M3,Trigger),"--")</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="T3" s="131">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M3,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42305</v>
       </c>
       <c r="U3" s="159"/>
       <c r="V3" s="160" t="str">
@@ -2154,7 +2152,7 @@
       </c>
       <c r="W3" s="3" t="str">
         <f t="array" ref="W3:W89">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,IncludeFlag),_xll.ohFilter(Priority,IncludeFlag),$AF$3,$AF$4,$AF$5,$AF$6,_xll.ohFilter(MinDistance,IncludeFlag),Trigger)</f>
-        <v>obj_00372</v>
+        <v>obj_00344</v>
       </c>
       <c r="X3" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W3,Trigger),"")</f>
@@ -2162,7 +2160,7 @@
       </c>
       <c r="Y3" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W3,Trigger),"")</f>
-        <v>4.8125000000000008E-3</v>
+        <v>4.8124999999999999E-3</v>
       </c>
       <c r="Z3" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W3)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W3)),_xll.qlSwapRateHelperSpread($W3))</f>
@@ -2170,14 +2168,14 @@
       </c>
       <c r="AA3" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W3,Trigger),"")</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="AB3" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W3,Trigger),"")</f>
-        <v>42279</v>
+        <v>42305</v>
       </c>
       <c r="AC3" s="68">
-        <v>4.8124682740494128E-3</v>
+        <v>4.8124682740494111E-3</v>
       </c>
       <c r="AD3" s="158"/>
       <c r="AE3" s="103" t="s">
@@ -2204,7 +2202,7 @@
       <c r="F4" s="127"/>
       <c r="G4" s="55" t="str">
         <f>_xll.qlLibor(,Currency,C4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00366#0000</v>
+        <v>obj_0032a#0001</v>
       </c>
       <c r="H4" s="153" t="str">
         <f t="shared" si="1"/>
@@ -2252,7 +2250,7 @@
         <v>Dp</v>
       </c>
       <c r="W4" s="3" t="str">
-        <v>obj_00370</v>
+        <v>obj_00342</v>
       </c>
       <c r="X4" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W4,Trigger),"")</f>
@@ -2260,7 +2258,7 @@
       </c>
       <c r="Y4" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W4,Trigger),"")</f>
-        <v>4.8988E-3</v>
+        <v>4.8612999999999998E-3</v>
       </c>
       <c r="Z4" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W4)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W4)),_xll.qlSwapRateHelperSpread($W4))</f>
@@ -2268,14 +2266,14 @@
       </c>
       <c r="AA4" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W4,Trigger),"")</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="AB4" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W4,Trigger),"")</f>
-        <v>42285</v>
+        <v>42311</v>
       </c>
       <c r="AC4" s="68">
-        <v>4.8985698943041205E-3</v>
+        <v>4.8610734035880064E-3</v>
       </c>
       <c r="AD4" s="158"/>
       <c r="AE4" s="103" t="s">
@@ -2302,7 +2300,7 @@
       <c r="F5" s="122"/>
       <c r="G5" s="6" t="str">
         <f>_xll.qlLibor(,Currency,C5,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035d#0000</v>
+        <v>obj_0033b#0001</v>
       </c>
       <c r="H5" s="119" t="str">
         <f t="shared" si="1"/>
@@ -2350,7 +2348,7 @@
         <v>Dp</v>
       </c>
       <c r="W5" s="3" t="str">
-        <v>obj_00371</v>
+        <v>obj_00343</v>
       </c>
       <c r="X5" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W5,Trigger),"")</f>
@@ -2366,14 +2364,14 @@
       </c>
       <c r="AA5" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W5,Trigger),"")</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="AB5" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W5,Trigger),"")</f>
-        <v>42310</v>
+        <v>42335</v>
       </c>
       <c r="AC5" s="68">
-        <v>5.0807682503300139E-3</v>
+        <v>5.0808036074002352E-3</v>
       </c>
       <c r="AD5" s="158"/>
       <c r="AE5" s="103" t="s">
@@ -2409,7 +2407,7 @@
       <c r="I6" s="121"/>
       <c r="J6" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H6,G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00370#0000</v>
+        <v>obj_00342#0001</v>
       </c>
       <c r="K6" s="48"/>
       <c r="L6" s="9" t="str">
@@ -2418,7 +2416,7 @@
       </c>
       <c r="M6" s="90" t="str">
         <f t="shared" si="4"/>
-        <v>obj_00370#0000</v>
+        <v>obj_00342#0001</v>
       </c>
       <c r="N6" s="143" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M6,Trigger),"--")</f>
@@ -2426,7 +2424,7 @@
       </c>
       <c r="O6" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M6,Trigger),"--")</f>
-        <v>4.8988E-3</v>
+        <v>4.8612999999999998E-3</v>
       </c>
       <c r="P6" s="93" t="b">
         <v>1</v>
@@ -2439,11 +2437,11 @@
       </c>
       <c r="S6" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M6,Trigger),"--")</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="T6" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M6,Trigger),"--")</f>
-        <v>42285</v>
+        <v>42311</v>
       </c>
       <c r="U6" s="159"/>
       <c r="V6" s="3" t="str">
@@ -2451,7 +2449,7 @@
         <v>Dp</v>
       </c>
       <c r="W6" s="3" t="str">
-        <v>obj_00373</v>
+        <v>obj_00345</v>
       </c>
       <c r="X6" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W6,Trigger),"")</f>
@@ -2467,14 +2465,14 @@
       </c>
       <c r="AA6" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W6,Trigger),"")</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="AB6" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W6,Trigger),"")</f>
-        <v>42339</v>
+        <v>42367</v>
       </c>
       <c r="AC6" s="68">
-        <v>5.377582807151054E-3</v>
+        <v>5.3775036039618697E-3</v>
       </c>
       <c r="AD6" s="158"/>
       <c r="AE6" s="103" t="s">
@@ -2510,7 +2508,7 @@
       <c r="I7" s="121"/>
       <c r="J7" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H7,G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00371#0000</v>
+        <v>obj_00343#0001</v>
       </c>
       <c r="K7" s="48"/>
       <c r="L7" s="9" t="str">
@@ -2519,7 +2517,7 @@
       </c>
       <c r="M7" s="90" t="str">
         <f>IF(ISBLANK(J7),"--",J7)</f>
-        <v>obj_00371#0000</v>
+        <v>obj_00343#0001</v>
       </c>
       <c r="N7" s="143" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M7,Trigger),"--")</f>
@@ -2540,11 +2538,11 @@
       </c>
       <c r="S7" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M7,Trigger),"--")</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="T7" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M7,Trigger),"--")</f>
-        <v>42310</v>
+        <v>42335</v>
       </c>
       <c r="U7" s="159"/>
       <c r="V7" s="3" t="str">
@@ -2552,7 +2550,7 @@
         <v>Dp</v>
       </c>
       <c r="W7" s="3" t="str">
-        <v>obj_0036f</v>
+        <v>obj_00341</v>
       </c>
       <c r="X7" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W7,Trigger),"")</f>
@@ -2560,7 +2558,7 @@
       </c>
       <c r="Y7" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W7,Trigger),"")</f>
-        <v>5.8688000000000004E-3</v>
+        <v>5.8312999999999993E-3</v>
       </c>
       <c r="Z7" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W7)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W7)),_xll.qlSwapRateHelperSpread($W7))</f>
@@ -2568,14 +2566,14 @@
       </c>
       <c r="AA7" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W7,Trigger),"")</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="AB7" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W7,Trigger),"")</f>
-        <v>42373</v>
+        <v>42396</v>
       </c>
       <c r="AC7" s="68">
-        <v>5.8643222752831087E-3</v>
+        <v>5.8270187514200232E-3</v>
       </c>
       <c r="AD7" s="158"/>
       <c r="AH7" s="156"/>
@@ -2605,7 +2603,7 @@
       <c r="I8" s="121"/>
       <c r="J8" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H8,G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00373#0000</v>
+        <v>obj_00345#0001</v>
       </c>
       <c r="K8" s="48"/>
       <c r="L8" s="9" t="str">
@@ -2614,7 +2612,7 @@
       </c>
       <c r="M8" s="90" t="str">
         <f>IF(ISBLANK(J8),"--",J8)</f>
-        <v>obj_00373#0000</v>
+        <v>obj_00345#0001</v>
       </c>
       <c r="N8" s="143" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M8,Trigger),"--")</f>
@@ -2635,11 +2633,11 @@
       </c>
       <c r="S8" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M8,Trigger),"--")</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="T8" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M8,Trigger),"--")</f>
-        <v>42339</v>
+        <v>42367</v>
       </c>
       <c r="U8" s="159"/>
       <c r="V8" s="3" t="str">
@@ -2647,7 +2645,7 @@
         <v>Dp</v>
       </c>
       <c r="W8" s="3" t="str">
-        <v>obj_0036e</v>
+        <v>obj_00340</v>
       </c>
       <c r="X8" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W8,Trigger),"")</f>
@@ -2655,7 +2653,7 @@
       </c>
       <c r="Y8" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W8,Trigger),"")</f>
-        <v>7.5250000000000004E-3</v>
+        <v>7.4938000000000001E-3</v>
       </c>
       <c r="Z8" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W8)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W8)),_xll.qlSwapRateHelperSpread($W8))</f>
@@ -2663,14 +2661,14 @@
       </c>
       <c r="AA8" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W8,Trigger),"")</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="AB8" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W8,Trigger),"")</f>
-        <v>42461</v>
+        <v>42487</v>
       </c>
       <c r="AC8" s="68">
-        <v>7.51084041211845E-3</v>
+        <v>7.4797574391441317E-3</v>
       </c>
       <c r="AD8" s="158"/>
       <c r="AH8" s="156"/>
@@ -2700,7 +2698,7 @@
       <c r="I9" s="121"/>
       <c r="J9" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H9,G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036f#0000</v>
+        <v>obj_00341#0001</v>
       </c>
       <c r="K9" s="48"/>
       <c r="L9" s="9" t="str">
@@ -2709,7 +2707,7 @@
       </c>
       <c r="M9" s="90" t="str">
         <f>IF(ISBLANK(J9),"--",J9)</f>
-        <v>obj_0036f#0000</v>
+        <v>obj_00341#0001</v>
       </c>
       <c r="N9" s="143" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M9,Trigger),"--")</f>
@@ -2717,7 +2715,7 @@
       </c>
       <c r="O9" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M9,Trigger),"--")</f>
-        <v>5.8688000000000004E-3</v>
+        <v>5.8312999999999993E-3</v>
       </c>
       <c r="P9" s="93" t="b">
         <v>1</v>
@@ -2730,11 +2728,11 @@
       </c>
       <c r="S9" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M9,Trigger),"--")</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="T9" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M9,Trigger),"--")</f>
-        <v>42373</v>
+        <v>42396</v>
       </c>
       <c r="U9" s="159"/>
       <c r="V9" s="3" t="str">
@@ -2742,7 +2740,7 @@
         <v>FRA</v>
       </c>
       <c r="W9" s="3" t="str">
-        <v>obj_0036c</v>
+        <v>obj_0033d</v>
       </c>
       <c r="X9" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W9,Trigger),"")</f>
@@ -2750,7 +2748,7 @@
       </c>
       <c r="Y9" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W9,Trigger),"")</f>
-        <v>8.1499999999999993E-3</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="Z9" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W9)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W9)),_xll.qlSwapRateHelperSpread($W9))</f>
@@ -2758,14 +2756,14 @@
       </c>
       <c r="AA9" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W9,Trigger),"")</f>
-        <v>42461</v>
+        <v>42487</v>
       </c>
       <c r="AB9" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W9,Trigger),"")</f>
-        <v>42646</v>
+        <v>42670</v>
       </c>
       <c r="AC9" s="68">
-        <v>7.8237179931759885E-3</v>
+        <v>7.8314737209041318E-3</v>
       </c>
       <c r="AD9" s="158"/>
       <c r="AH9" s="156"/>
@@ -2795,7 +2793,7 @@
       <c r="I10" s="121"/>
       <c r="J10" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H10,G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036e#0000</v>
+        <v>obj_00340#0001</v>
       </c>
       <c r="K10" s="48" t="s">
         <v>34</v>
@@ -2806,7 +2804,7 @@
       </c>
       <c r="M10" s="90" t="str">
         <f>IF(ISBLANK(J10),"--",J10)</f>
-        <v>obj_0036e#0000</v>
+        <v>obj_00340#0001</v>
       </c>
       <c r="N10" s="143" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M10,Trigger),"--")</f>
@@ -2814,7 +2812,7 @@
       </c>
       <c r="O10" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M10,Trigger),"--")</f>
-        <v>7.5250000000000004E-3</v>
+        <v>7.4938000000000001E-3</v>
       </c>
       <c r="P10" s="93" t="b">
         <v>1</v>
@@ -2827,11 +2825,11 @@
       </c>
       <c r="S10" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M10,Trigger),"--")</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="T10" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M10,Trigger),"--")</f>
-        <v>42461</v>
+        <v>42487</v>
       </c>
       <c r="U10" s="159"/>
       <c r="V10" s="3" t="str">
@@ -2839,7 +2837,7 @@
         <v>FRA</v>
       </c>
       <c r="W10" s="3" t="str">
-        <v>obj_0036d</v>
+        <v>obj_0033f</v>
       </c>
       <c r="X10" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W10,Trigger),"")</f>
@@ -2855,14 +2853,14 @@
       </c>
       <c r="AA10" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W10,Trigger),"")</f>
-        <v>42552</v>
+        <v>42578</v>
       </c>
       <c r="AB10" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W10,Trigger),"")</f>
-        <v>42738</v>
+        <v>42762</v>
       </c>
       <c r="AC10" s="68">
-        <v>8.1762058891630407E-3</v>
+        <v>8.1669683368332489E-3</v>
       </c>
       <c r="AD10" s="158"/>
       <c r="AH10" s="156"/>
@@ -2931,7 +2929,7 @@
         <v>FRA</v>
       </c>
       <c r="W11" s="3" t="str">
-        <v>obj_0036b</v>
+        <v>obj_0033e</v>
       </c>
       <c r="X11" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W11,Trigger),"")</f>
@@ -2947,14 +2945,14 @@
       </c>
       <c r="AA11" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W11,Trigger),"")</f>
-        <v>42646</v>
+        <v>42670</v>
       </c>
       <c r="AB11" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W11,Trigger),"")</f>
-        <v>42828</v>
+        <v>42852</v>
       </c>
       <c r="AC11" s="68">
-        <v>8.5191831865918579E-3</v>
+        <v>8.5269013010685814E-3</v>
       </c>
       <c r="AD11" s="158"/>
       <c r="AH11" s="156"/>
@@ -3008,7 +3006,7 @@
         <v>Sw</v>
       </c>
       <c r="W12" s="3" t="str">
-        <v>obj_00369</v>
+        <v>obj_00333</v>
       </c>
       <c r="X12" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W12,Trigger),"")</f>
@@ -3016,7 +3014,7 @@
       </c>
       <c r="Y12" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W12,Trigger),"")</f>
-        <v>9.4600000000000014E-3</v>
+        <v>9.4400000000000005E-3</v>
       </c>
       <c r="Z12" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W12)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W12)),_xll.qlSwapRateHelperSpread($W12))</f>
@@ -3024,14 +3022,14 @@
       </c>
       <c r="AA12" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W12,Trigger),"")</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="AB12" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W12,Trigger),"")</f>
-        <v>43010</v>
+        <v>43035</v>
       </c>
       <c r="AC12" s="68">
-        <v>9.4471120536884553E-3</v>
+        <v>9.4270055194066588E-3</v>
       </c>
       <c r="AD12" s="158"/>
       <c r="AH12" s="156"/>
@@ -3098,7 +3096,7 @@
         <v>Sw</v>
       </c>
       <c r="W13" s="3" t="str">
-        <v>obj_00362</v>
+        <v>obj_00335</v>
       </c>
       <c r="X13" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W13,Trigger),"")</f>
@@ -3106,7 +3104,7 @@
       </c>
       <c r="Y13" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W13,Trigger),"")</f>
-        <v>1.1280000000000002E-2</v>
+        <v>1.1219999999999999E-2</v>
       </c>
       <c r="Z13" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W13)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W13)),_xll.qlSwapRateHelperSpread($W13))</f>
@@ -3114,14 +3112,14 @@
       </c>
       <c r="AA13" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W13,Trigger),"")</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="AB13" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W13,Trigger),"")</f>
-        <v>43374</v>
+        <v>43402</v>
       </c>
       <c r="AC13" s="68">
-        <v>1.1277376742534442E-2</v>
+        <v>1.1216778510237906E-2</v>
       </c>
       <c r="AD13" s="158"/>
       <c r="AH13" s="156"/>
@@ -3189,7 +3187,7 @@
         <v>Sw</v>
       </c>
       <c r="W14" s="3" t="str">
-        <v>obj_0035c</v>
+        <v>obj_00339</v>
       </c>
       <c r="X14" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W14,Trigger),"")</f>
@@ -3197,7 +3195,7 @@
       </c>
       <c r="Y14" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W14,Trigger),"")</f>
-        <v>1.295E-2</v>
+        <v>1.286E-2</v>
       </c>
       <c r="Z14" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W14)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W14)),_xll.qlSwapRateHelperSpread($W14))</f>
@@ -3205,14 +3203,14 @@
       </c>
       <c r="AA14" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W14,Trigger),"")</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="AB14" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W14,Trigger),"")</f>
-        <v>43739</v>
+        <v>43766</v>
       </c>
       <c r="AC14" s="68">
-        <v>1.296682672564657E-2</v>
+        <v>1.2875813105671945E-2</v>
       </c>
       <c r="AD14" s="158"/>
       <c r="AH14" s="156"/>
@@ -3280,7 +3278,7 @@
         <v>Sw</v>
       </c>
       <c r="W15" s="3" t="str">
-        <v>obj_00361</v>
+        <v>obj_00332</v>
       </c>
       <c r="X15" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W15,Trigger),"")</f>
@@ -3288,7 +3286,7 @@
       </c>
       <c r="Y15" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W15,Trigger),"")</f>
-        <v>1.435E-2</v>
+        <v>1.4279999999999999E-2</v>
       </c>
       <c r="Z15" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W15)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W15)),_xll.qlSwapRateHelperSpread($W15))</f>
@@ -3296,14 +3294,14 @@
       </c>
       <c r="AA15" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W15,Trigger),"")</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="AB15" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W15,Trigger),"")</f>
-        <v>44105</v>
+        <v>44131</v>
       </c>
       <c r="AC15" s="68">
-        <v>1.4392201450768994E-2</v>
+        <v>1.4321427254728746E-2</v>
       </c>
       <c r="AD15" s="158"/>
       <c r="AH15" s="156"/>
@@ -3371,7 +3369,7 @@
         <v>Sw</v>
       </c>
       <c r="W16" s="3" t="str">
-        <v>obj_00364</v>
+        <v>obj_0033a</v>
       </c>
       <c r="X16" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W16,Trigger),"")</f>
@@ -3379,7 +3377,7 @@
       </c>
       <c r="Y16" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W16,Trigger),"")</f>
-        <v>1.5500000000000003E-2</v>
+        <v>1.5459999999999998E-2</v>
       </c>
       <c r="Z16" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W16)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W16)),_xll.qlSwapRateHelperSpread($W16))</f>
@@ -3387,14 +3385,14 @@
       </c>
       <c r="AA16" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W16,Trigger),"")</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="AB16" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W16,Trigger),"")</f>
-        <v>44470</v>
+        <v>44496</v>
       </c>
       <c r="AC16" s="68">
-        <v>1.5570756462400031E-2</v>
+        <v>1.5531227451616012E-2</v>
       </c>
       <c r="AD16" s="158"/>
       <c r="AH16" s="156"/>
@@ -3430,7 +3428,7 @@
       </c>
       <c r="M17" s="90" t="str">
         <f t="shared" si="9"/>
-        <v>obj_0036c#0000</v>
+        <v>obj_0033d#0001</v>
       </c>
       <c r="N17" s="143" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M17,Trigger),"--")</f>
@@ -3438,7 +3436,7 @@
       </c>
       <c r="O17" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M17,Trigger),"--")</f>
-        <v>8.1499999999999993E-3</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="P17" s="93" t="b">
         <v>1</v>
@@ -3451,18 +3449,18 @@
       </c>
       <c r="S17" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M17,Trigger),"--")</f>
-        <v>42461</v>
+        <v>42487</v>
       </c>
       <c r="T17" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M17,Trigger),"--")</f>
-        <v>42646</v>
+        <v>42670</v>
       </c>
       <c r="V17" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W17" s="3" t="str">
-        <v>obj_0036a</v>
+        <v>obj_00336</v>
       </c>
       <c r="X17" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W17,Trigger),"")</f>
@@ -3470,7 +3468,7 @@
       </c>
       <c r="Y17" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W17,Trigger),"")</f>
-        <v>1.6449999999999999E-2</v>
+        <v>1.644E-2</v>
       </c>
       <c r="Z17" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W17)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W17)),_xll.qlSwapRateHelperSpread($W17))</f>
@@ -3478,14 +3476,14 @@
       </c>
       <c r="AA17" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W17,Trigger),"")</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="AB17" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W17,Trigger),"")</f>
-        <v>44837</v>
+        <v>44861</v>
       </c>
       <c r="AC17" s="68">
-        <v>1.6550478993819475E-2</v>
+        <v>1.654265919155053E-2</v>
       </c>
       <c r="AD17" s="158"/>
       <c r="AH17" s="156"/>
@@ -3553,7 +3551,7 @@
         <v>Sw</v>
       </c>
       <c r="W18" s="3" t="str">
-        <v>obj_00363</v>
+        <v>obj_00338</v>
       </c>
       <c r="X18" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W18,Trigger),"")</f>
@@ -3561,7 +3559,7 @@
       </c>
       <c r="Y18" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W18,Trigger),"")</f>
-        <v>1.7230000000000002E-2</v>
+        <v>1.7269999999999997E-2</v>
       </c>
       <c r="Z18" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W18)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W18)),_xll.qlSwapRateHelperSpread($W18))</f>
@@ -3569,14 +3567,14 @@
       </c>
       <c r="AA18" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W18,Trigger),"")</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="AB18" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W18,Trigger),"")</f>
-        <v>45201</v>
+        <v>45226</v>
       </c>
       <c r="AC18" s="68">
-        <v>1.7359899619338318E-2</v>
+        <v>1.7405152080667737E-2</v>
       </c>
       <c r="AD18" s="158"/>
       <c r="AH18" s="156"/>
@@ -3606,7 +3604,7 @@
       <c r="I19" s="121"/>
       <c r="J19" s="62" t="str">
         <f>_xll.qlFraRateHelper(,H19,B19&amp;"M",G19,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036c#0000</v>
+        <v>obj_0033d#0001</v>
       </c>
       <c r="K19" s="48"/>
       <c r="L19" s="9" t="str">
@@ -3647,7 +3645,7 @@
         <v>Sw</v>
       </c>
       <c r="W19" s="3" t="str">
-        <v>obj_0035a</v>
+        <v>obj_00334</v>
       </c>
       <c r="X19" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W19,Trigger),"")</f>
@@ -3655,7 +3653,7 @@
       </c>
       <c r="Y19" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W19,Trigger),"")</f>
-        <v>1.7890000000000003E-2</v>
+        <v>1.797E-2</v>
       </c>
       <c r="Z19" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W19)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W19)),_xll.qlSwapRateHelperSpread($W19))</f>
@@ -3663,14 +3661,14 @@
       </c>
       <c r="AA19" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W19,Trigger),"")</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="AB19" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W19,Trigger),"")</f>
-        <v>45566</v>
+        <v>45593</v>
       </c>
       <c r="AC19" s="68">
-        <v>1.8048963249348685E-2</v>
+        <v>1.8137142988239804E-2</v>
       </c>
       <c r="AD19" s="158"/>
       <c r="AH19" s="156"/>
@@ -3706,7 +3704,7 @@
       </c>
       <c r="M20" s="90" t="str">
         <f t="shared" si="9"/>
-        <v>obj_0036d#0000</v>
+        <v>obj_0033f#0001</v>
       </c>
       <c r="N20" s="143" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M20,Trigger),"--")</f>
@@ -3727,18 +3725,18 @@
       </c>
       <c r="S20" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M20,Trigger),"--")</f>
-        <v>42552</v>
+        <v>42578</v>
       </c>
       <c r="T20" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M20,Trigger),"--")</f>
-        <v>42738</v>
+        <v>42762</v>
       </c>
       <c r="V20" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W20" s="3" t="str">
-        <v>obj_00367</v>
+        <v>obj_0032d</v>
       </c>
       <c r="X20" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W20,Trigger),"")</f>
@@ -3746,7 +3744,7 @@
       </c>
       <c r="Y20" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W20,Trigger),"")</f>
-        <v>1.8440000000000002E-2</v>
+        <v>1.8550000000000001E-2</v>
       </c>
       <c r="Z20" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W20)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W20)),_xll.qlSwapRateHelperSpread($W20))</f>
@@ -3754,14 +3752,14 @@
       </c>
       <c r="AA20" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W20,Trigger),"")</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="AB20" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W20,Trigger),"")</f>
-        <v>45931</v>
+        <v>45957</v>
       </c>
       <c r="AC20" s="68">
-        <v>1.8626040209155394E-2</v>
+        <v>1.874693969472568E-2</v>
       </c>
       <c r="AD20" s="158"/>
       <c r="AH20" s="156"/>
@@ -3829,7 +3827,7 @@
         <v>Sw</v>
       </c>
       <c r="W21" s="3" t="str">
-        <v>obj_0035f</v>
+        <v>obj_0032c</v>
       </c>
       <c r="X21" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W21,Trigger),"")</f>
@@ -3837,7 +3835,7 @@
       </c>
       <c r="Y21" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W21,Trigger),"")</f>
-        <v>1.9349999999999999E-2</v>
+        <v>1.9519999999999999E-2</v>
       </c>
       <c r="Z21" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W21)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W21)),_xll.qlSwapRateHelperSpread($W21))</f>
@@ -3845,14 +3843,14 @@
       </c>
       <c r="AA21" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W21,Trigger),"")</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="AB21" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W21,Trigger),"")</f>
-        <v>46661</v>
+        <v>46687</v>
       </c>
       <c r="AC21" s="68">
-        <v>1.9590831755298715E-2</v>
+        <v>1.9777812990723957E-2</v>
       </c>
       <c r="AD21" s="158"/>
       <c r="AH21" s="156"/>
@@ -3882,7 +3880,7 @@
       <c r="I22" s="121"/>
       <c r="J22" s="62" t="str">
         <f>_xll.qlFraRateHelper(,H22,B22&amp;"M",G22,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036d#0000</v>
+        <v>obj_0033f#0001</v>
       </c>
       <c r="K22" s="48"/>
       <c r="L22" s="9" t="str">
@@ -3923,7 +3921,7 @@
         <v>Sw</v>
       </c>
       <c r="W22" s="3" t="str">
-        <v>obj_00359</v>
+        <v>obj_00331</v>
       </c>
       <c r="X22" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W22,Trigger),"")</f>
@@ -3931,7 +3929,7 @@
       </c>
       <c r="Y22" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W22,Trigger),"")</f>
-        <v>2.0240000000000001E-2</v>
+        <v>2.0480000000000002E-2</v>
       </c>
       <c r="Z22" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W22)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W22)),_xll.qlSwapRateHelperSpread($W22))</f>
@@ -3939,14 +3937,14 @@
       </c>
       <c r="AA22" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W22,Trigger),"")</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="AB22" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W22,Trigger),"")</f>
-        <v>47757</v>
+        <v>47784</v>
       </c>
       <c r="AC22" s="68">
-        <v>2.0540685554446589E-2</v>
+        <v>2.0806745412190131E-2</v>
       </c>
       <c r="AD22" s="158"/>
       <c r="AH22" s="156"/>
@@ -3982,7 +3980,7 @@
       </c>
       <c r="M23" s="90" t="str">
         <f t="shared" si="9"/>
-        <v>obj_0036b#0000</v>
+        <v>obj_0033e#0001</v>
       </c>
       <c r="N23" s="143" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M23,Trigger),"--")</f>
@@ -4003,18 +4001,18 @@
       </c>
       <c r="S23" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M23,Trigger),"--")</f>
-        <v>42646</v>
+        <v>42670</v>
       </c>
       <c r="T23" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M23,Trigger),"--")</f>
-        <v>42828</v>
+        <v>42852</v>
       </c>
       <c r="V23" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W23" s="3" t="str">
-        <v>obj_0035e</v>
+        <v>obj_00329</v>
       </c>
       <c r="X23" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W23,Trigger),"")</f>
@@ -4022,7 +4020,7 @@
       </c>
       <c r="Y23" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W23,Trigger),"")</f>
-        <v>2.0910000000000002E-2</v>
+        <v>2.1219999999999999E-2</v>
       </c>
       <c r="Z23" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W23)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W23)),_xll.qlSwapRateHelperSpread($W23))</f>
@@ -4030,14 +4028,14 @@
       </c>
       <c r="AA23" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W23,Trigger),"")</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="AB23" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W23,Trigger),"")</f>
-        <v>49583</v>
+        <v>49611</v>
       </c>
       <c r="AC23" s="68">
-        <v>2.1238463204224317E-2</v>
+        <v>2.1583974221922032E-2</v>
       </c>
       <c r="AD23" s="158"/>
       <c r="AH23" s="156"/>
@@ -4105,7 +4103,7 @@
         <v>Sw</v>
       </c>
       <c r="W24" s="3" t="str">
-        <v>obj_0035b</v>
+        <v>obj_00337</v>
       </c>
       <c r="X24" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W24,Trigger),"")</f>
@@ -4113,7 +4111,7 @@
       </c>
       <c r="Y24" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W24,Trigger),"")</f>
-        <v>2.0970000000000003E-2</v>
+        <v>2.1310000000000003E-2</v>
       </c>
       <c r="Z24" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W24)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W24)),_xll.qlSwapRateHelperSpread($W24))</f>
@@ -4121,14 +4119,14 @@
       </c>
       <c r="AA24" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W24,Trigger),"")</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="AB24" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W24,Trigger),"")</f>
-        <v>51410</v>
+        <v>51438</v>
       </c>
       <c r="AC24" s="68">
-        <v>2.1226538256923749E-2</v>
+        <v>2.1602791350182712E-2</v>
       </c>
       <c r="AD24" s="158"/>
       <c r="AH24" s="156"/>
@@ -4158,7 +4156,7 @@
       <c r="I25" s="121"/>
       <c r="J25" s="62" t="str">
         <f>_xll.qlFraRateHelper(,H25,B25&amp;"M",G25,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036b#0000</v>
+        <v>obj_0033e#0001</v>
       </c>
       <c r="K25" s="48"/>
       <c r="L25" s="9" t="str">
@@ -4199,7 +4197,7 @@
         <v>Sw</v>
       </c>
       <c r="W25" s="3" t="str">
-        <v>obj_00368</v>
+        <v>obj_00330</v>
       </c>
       <c r="X25" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W25,Trigger),"")</f>
@@ -4207,7 +4205,7 @@
       </c>
       <c r="Y25" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W25,Trigger),"")</f>
-        <v>2.0910000000000002E-2</v>
+        <v>2.1259999999999998E-2</v>
       </c>
       <c r="Z25" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W25)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W25)),_xll.qlSwapRateHelperSpread($W25))</f>
@@ -4215,14 +4213,14 @@
       </c>
       <c r="AA25" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W25,Trigger),"")</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="AB25" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W25,Trigger),"")</f>
-        <v>53237</v>
+        <v>53262</v>
       </c>
       <c r="AC25" s="68">
-        <v>2.1085368400848396E-2</v>
+        <v>2.1467968279372081E-2</v>
       </c>
       <c r="AD25" s="158"/>
       <c r="AH25" s="156"/>
@@ -4290,7 +4288,7 @@
         <v>Sw</v>
       </c>
       <c r="W26" s="3" t="str">
-        <v>obj_00360</v>
+        <v>obj_0032f</v>
       </c>
       <c r="X26" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W26,Trigger),"")</f>
@@ -4298,7 +4296,7 @@
       </c>
       <c r="Y26" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W26,Trigger),"")</f>
-        <v>2.0420000000000004E-2</v>
+        <v>2.0760000000000001E-2</v>
       </c>
       <c r="Z26" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W26)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W26)),_xll.qlSwapRateHelperSpread($W26))</f>
@@ -4306,14 +4304,14 @@
       </c>
       <c r="AA26" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W26,Trigger),"")</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="AB26" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W26,Trigger),"")</f>
-        <v>56888</v>
+        <v>56914</v>
       </c>
       <c r="AC26" s="68">
-        <v>2.0324410435328066E-2</v>
+        <v>2.0678491347302434E-2</v>
       </c>
       <c r="AD26" s="158"/>
       <c r="AH26" s="156"/>
@@ -4381,7 +4379,7 @@
         <v>Sw</v>
       </c>
       <c r="W27" s="3" t="str">
-        <v>obj_00357</v>
+        <v>obj_0032b</v>
       </c>
       <c r="X27" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W27,Trigger),"")</f>
@@ -4389,7 +4387,7 @@
       </c>
       <c r="Y27" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W27,Trigger),"")</f>
-        <v>1.9970000000000002E-2</v>
+        <v>2.0310000000000002E-2</v>
       </c>
       <c r="Z27" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W27)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W27)),_xll.qlSwapRateHelperSpread($W27))</f>
@@ -4397,14 +4395,14 @@
       </c>
       <c r="AA27" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W27,Trigger),"")</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="AB27" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W27,Trigger),"")</f>
-        <v>60541</v>
+        <v>60567</v>
       </c>
       <c r="AC27" s="68">
-        <v>1.9630998940024777E-2</v>
+        <v>1.9975304210311254E-2</v>
       </c>
       <c r="AD27" s="158"/>
       <c r="AH27" s="156"/>
@@ -4472,7 +4470,7 @@
         <v>Sw</v>
       </c>
       <c r="W28" s="3" t="str">
-        <v>obj_00365</v>
+        <v>obj_0033c</v>
       </c>
       <c r="X28" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W28,Trigger),"")</f>
@@ -4480,7 +4478,7 @@
       </c>
       <c r="Y28" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W28,Trigger),"")</f>
-        <v>1.9910000000000001E-2</v>
+        <v>2.0240000000000001E-2</v>
       </c>
       <c r="Z28" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W28)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W28)),_xll.qlSwapRateHelperSpread($W28))</f>
@@ -4488,14 +4486,14 @@
       </c>
       <c r="AA28" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W28,Trigger),"")</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="AB28" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W28,Trigger),"")</f>
-        <v>64193</v>
+        <v>64220</v>
       </c>
       <c r="AC28" s="68">
-        <v>1.9569288024333959E-2</v>
+        <v>1.9894061358426942E-2</v>
       </c>
       <c r="AD28" s="158"/>
       <c r="AH28" s="156"/>
@@ -4951,7 +4949,7 @@
       </c>
       <c r="C34" s="56" t="str">
         <f>_xll.qlIMMNextCode(Evaluationdate-1,B34,Trigger)</f>
-        <v>V5</v>
+        <v>X5</v>
       </c>
       <c r="D34" s="127"/>
       <c r="E34" s="127"/>
@@ -4962,11 +4960,11 @@
       </c>
       <c r="H34" s="114" t="str">
         <f t="shared" ref="H34:H55" si="16">Currency&amp;"FUT"&amp;$G$32&amp;$C34&amp;QuoteSuffix</f>
-        <v>GBPFUT3MV5_Quote</v>
+        <v>GBPFUT3MX5_Quote</v>
       </c>
       <c r="I34" s="114" t="str">
         <f t="shared" ref="I34:I55" si="17">Currency&amp;"FUT"&amp;$G$32&amp;$C34&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MV5ConvAdj_Quote</v>
+        <v>GBPFUT3MX5ConvAdj_Quote</v>
       </c>
       <c r="J34" s="57"/>
       <c r="K34" s="48"/>
@@ -5044,7 +5042,7 @@
       </c>
       <c r="C35" s="61" t="str">
         <f>_xll.qlIMMNextCode(C34,B35,Trigger)</f>
-        <v>X5</v>
+        <v>Z5</v>
       </c>
       <c r="D35" s="121"/>
       <c r="E35" s="121"/>
@@ -5055,11 +5053,11 @@
       </c>
       <c r="H35" s="115" t="str">
         <f t="shared" si="16"/>
-        <v>GBPFUT3MX5_Quote</v>
+        <v>GBPFUT3MZ5_Quote</v>
       </c>
       <c r="I35" s="115" t="str">
         <f t="shared" si="17"/>
-        <v>GBPFUT3MX5ConvAdj_Quote</v>
+        <v>GBPFUT3MZ5ConvAdj_Quote</v>
       </c>
       <c r="J35" s="62"/>
       <c r="K35" s="48"/>
@@ -5137,7 +5135,7 @@
       </c>
       <c r="C36" s="61" t="str">
         <f>_xll.qlIMMNextCode(C35,B36,Trigger)</f>
-        <v>Z5</v>
+        <v>F6</v>
       </c>
       <c r="D36" s="121"/>
       <c r="E36" s="121"/>
@@ -5148,11 +5146,11 @@
       </c>
       <c r="H36" s="115" t="str">
         <f t="shared" si="16"/>
-        <v>GBPFUT3MZ5_Quote</v>
+        <v>GBPFUT3MF6_Quote</v>
       </c>
       <c r="I36" s="115" t="str">
         <f t="shared" si="17"/>
-        <v>GBPFUT3MZ5ConvAdj_Quote</v>
+        <v>GBPFUT3MF6ConvAdj_Quote</v>
       </c>
       <c r="J36" s="62"/>
       <c r="K36" s="48"/>
@@ -5230,7 +5228,7 @@
       </c>
       <c r="C37" s="61" t="str">
         <f>_xll.qlIMMNextCode(C36,B37,Trigger)</f>
-        <v>F6</v>
+        <v>G6</v>
       </c>
       <c r="D37" s="121"/>
       <c r="E37" s="121"/>
@@ -5241,11 +5239,11 @@
       </c>
       <c r="H37" s="115" t="str">
         <f t="shared" si="16"/>
-        <v>GBPFUT3MF6_Quote</v>
+        <v>GBPFUT3MG6_Quote</v>
       </c>
       <c r="I37" s="115" t="str">
         <f t="shared" si="17"/>
-        <v>GBPFUT3MF6ConvAdj_Quote</v>
+        <v>GBPFUT3MG6ConvAdj_Quote</v>
       </c>
       <c r="J37" s="62"/>
       <c r="K37" s="48"/>
@@ -5323,7 +5321,7 @@
       </c>
       <c r="C38" s="8" t="str">
         <f>_xll.qlIMMNextCode(C37,B38,Trigger)</f>
-        <v>G6</v>
+        <v>H6</v>
       </c>
       <c r="D38" s="122"/>
       <c r="E38" s="122"/>
@@ -5334,11 +5332,11 @@
       </c>
       <c r="H38" s="116" t="str">
         <f t="shared" si="16"/>
-        <v>GBPFUT3MG6_Quote</v>
+        <v>GBPFUT3MH6_Quote</v>
       </c>
       <c r="I38" s="116" t="str">
         <f t="shared" si="17"/>
-        <v>GBPFUT3MG6ConvAdj_Quote</v>
+        <v>GBPFUT3MH6ConvAdj_Quote</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="48"/>
@@ -5416,7 +5414,7 @@
       </c>
       <c r="C39" s="61" t="str">
         <f>_xll.qlIMMNextCode(C38,B39,Trigger)</f>
-        <v>H6</v>
+        <v>M6</v>
       </c>
       <c r="D39" s="121"/>
       <c r="E39" s="121"/>
@@ -5427,11 +5425,11 @@
       </c>
       <c r="H39" s="115" t="str">
         <f t="shared" si="16"/>
-        <v>GBPFUT3MH6_Quote</v>
+        <v>GBPFUT3MM6_Quote</v>
       </c>
       <c r="I39" s="115" t="str">
         <f t="shared" si="17"/>
-        <v>GBPFUT3MH6ConvAdj_Quote</v>
+        <v>GBPFUT3MM6ConvAdj_Quote</v>
       </c>
       <c r="J39" s="62"/>
       <c r="L39" s="9" t="str">
@@ -5508,7 +5506,7 @@
       </c>
       <c r="C40" s="61" t="str">
         <f>_xll.qlIMMNextCode(C39,B40,Trigger)</f>
-        <v>M6</v>
+        <v>U6</v>
       </c>
       <c r="D40" s="121"/>
       <c r="E40" s="121"/>
@@ -5519,11 +5517,11 @@
       </c>
       <c r="H40" s="115" t="str">
         <f t="shared" si="16"/>
-        <v>GBPFUT3MM6_Quote</v>
+        <v>GBPFUT3MU6_Quote</v>
       </c>
       <c r="I40" s="115" t="str">
         <f t="shared" si="17"/>
-        <v>GBPFUT3MM6ConvAdj_Quote</v>
+        <v>GBPFUT3MU6ConvAdj_Quote</v>
       </c>
       <c r="J40" s="62"/>
       <c r="L40" s="9" t="str">
@@ -5600,7 +5598,7 @@
       </c>
       <c r="C41" s="61" t="str">
         <f>_xll.qlIMMNextCode(C40,B41,Trigger)</f>
-        <v>U6</v>
+        <v>Z6</v>
       </c>
       <c r="D41" s="121"/>
       <c r="E41" s="121"/>
@@ -5611,11 +5609,11 @@
       </c>
       <c r="H41" s="115" t="str">
         <f t="shared" si="16"/>
-        <v>GBPFUT3MU6_Quote</v>
+        <v>GBPFUT3MZ6_Quote</v>
       </c>
       <c r="I41" s="115" t="str">
         <f t="shared" si="17"/>
-        <v>GBPFUT3MU6ConvAdj_Quote</v>
+        <v>GBPFUT3MZ6ConvAdj_Quote</v>
       </c>
       <c r="J41" s="62"/>
       <c r="L41" s="9" t="str">
@@ -5692,7 +5690,7 @@
       </c>
       <c r="C42" s="61" t="str">
         <f>_xll.qlIMMNextCode(C41,B42,Trigger)</f>
-        <v>Z6</v>
+        <v>H7</v>
       </c>
       <c r="D42" s="121"/>
       <c r="E42" s="121"/>
@@ -5703,11 +5701,11 @@
       </c>
       <c r="H42" s="115" t="str">
         <f t="shared" si="16"/>
-        <v>GBPFUT3MZ6_Quote</v>
+        <v>GBPFUT3MH7_Quote</v>
       </c>
       <c r="I42" s="115" t="str">
         <f t="shared" si="17"/>
-        <v>GBPFUT3MZ6ConvAdj_Quote</v>
+        <v>GBPFUT3MH7ConvAdj_Quote</v>
       </c>
       <c r="J42" s="62"/>
       <c r="L42" s="9" t="str">
@@ -5784,7 +5782,7 @@
       </c>
       <c r="C43" s="61" t="str">
         <f>_xll.qlIMMNextCode(C42,B43,Trigger)</f>
-        <v>H7</v>
+        <v>M7</v>
       </c>
       <c r="D43" s="121"/>
       <c r="E43" s="121"/>
@@ -5795,11 +5793,11 @@
       </c>
       <c r="H43" s="115" t="str">
         <f t="shared" si="16"/>
-        <v>GBPFUT3MH7_Quote</v>
+        <v>GBPFUT3MM7_Quote</v>
       </c>
       <c r="I43" s="115" t="str">
         <f t="shared" si="17"/>
-        <v>GBPFUT3MH7ConvAdj_Quote</v>
+        <v>GBPFUT3MM7ConvAdj_Quote</v>
       </c>
       <c r="J43" s="62"/>
       <c r="L43" s="9" t="str">
@@ -5876,7 +5874,7 @@
       </c>
       <c r="C44" s="61" t="str">
         <f>_xll.qlIMMNextCode(C43,B44,Trigger)</f>
-        <v>M7</v>
+        <v>U7</v>
       </c>
       <c r="D44" s="121"/>
       <c r="E44" s="121"/>
@@ -5887,11 +5885,11 @@
       </c>
       <c r="H44" s="115" t="str">
         <f t="shared" si="16"/>
-        <v>GBPFUT3MM7_Quote</v>
+        <v>GBPFUT3MU7_Quote</v>
       </c>
       <c r="I44" s="115" t="str">
         <f t="shared" si="17"/>
-        <v>GBPFUT3MM7ConvAdj_Quote</v>
+        <v>GBPFUT3MU7ConvAdj_Quote</v>
       </c>
       <c r="J44" s="62"/>
       <c r="L44" s="9" t="str">
@@ -5968,7 +5966,7 @@
       </c>
       <c r="C45" s="61" t="str">
         <f>_xll.qlIMMNextCode(C44,B45,Trigger)</f>
-        <v>U7</v>
+        <v>Z7</v>
       </c>
       <c r="D45" s="121"/>
       <c r="E45" s="121"/>
@@ -5979,11 +5977,11 @@
       </c>
       <c r="H45" s="115" t="str">
         <f t="shared" si="16"/>
-        <v>GBPFUT3MU7_Quote</v>
+        <v>GBPFUT3MZ7_Quote</v>
       </c>
       <c r="I45" s="115" t="str">
         <f t="shared" si="17"/>
-        <v>GBPFUT3MU7ConvAdj_Quote</v>
+        <v>GBPFUT3MZ7ConvAdj_Quote</v>
       </c>
       <c r="J45" s="62"/>
       <c r="L45" s="9" t="str">
@@ -6060,7 +6058,7 @@
       </c>
       <c r="C46" s="61" t="str">
         <f>_xll.qlIMMNextCode(C45,B46,Trigger)</f>
-        <v>Z7</v>
+        <v>H8</v>
       </c>
       <c r="D46" s="121"/>
       <c r="E46" s="121"/>
@@ -6071,11 +6069,11 @@
       </c>
       <c r="H46" s="115" t="str">
         <f t="shared" si="16"/>
-        <v>GBPFUT3MZ7_Quote</v>
+        <v>GBPFUT3MH8_Quote</v>
       </c>
       <c r="I46" s="115" t="str">
         <f t="shared" si="17"/>
-        <v>GBPFUT3MZ7ConvAdj_Quote</v>
+        <v>GBPFUT3MH8ConvAdj_Quote</v>
       </c>
       <c r="J46" s="62"/>
       <c r="L46" s="9" t="str">
@@ -6152,7 +6150,7 @@
       </c>
       <c r="C47" s="61" t="str">
         <f>_xll.qlIMMNextCode(C46,B47,Trigger)</f>
-        <v>H8</v>
+        <v>M8</v>
       </c>
       <c r="D47" s="121"/>
       <c r="E47" s="121"/>
@@ -6163,11 +6161,11 @@
       </c>
       <c r="H47" s="115" t="str">
         <f t="shared" si="16"/>
-        <v>GBPFUT3MH8_Quote</v>
+        <v>GBPFUT3MM8_Quote</v>
       </c>
       <c r="I47" s="115" t="str">
         <f t="shared" si="17"/>
-        <v>GBPFUT3MH8ConvAdj_Quote</v>
+        <v>GBPFUT3MM8ConvAdj_Quote</v>
       </c>
       <c r="J47" s="62"/>
       <c r="L47" s="9" t="str">
@@ -6244,7 +6242,7 @@
       </c>
       <c r="C48" s="61" t="str">
         <f>_xll.qlIMMNextCode(C47,B48,Trigger)</f>
-        <v>M8</v>
+        <v>U8</v>
       </c>
       <c r="D48" s="121"/>
       <c r="E48" s="121"/>
@@ -6255,11 +6253,11 @@
       </c>
       <c r="H48" s="115" t="str">
         <f t="shared" si="16"/>
-        <v>GBPFUT3MM8_Quote</v>
+        <v>GBPFUT3MU8_Quote</v>
       </c>
       <c r="I48" s="115" t="str">
         <f t="shared" si="17"/>
-        <v>GBPFUT3MM8ConvAdj_Quote</v>
+        <v>GBPFUT3MU8ConvAdj_Quote</v>
       </c>
       <c r="J48" s="62"/>
       <c r="L48" s="9" t="str">
@@ -6336,7 +6334,7 @@
       </c>
       <c r="C49" s="61" t="str">
         <f>_xll.qlIMMNextCode(C48,B49,Trigger)</f>
-        <v>U8</v>
+        <v>Z8</v>
       </c>
       <c r="D49" s="121"/>
       <c r="E49" s="121"/>
@@ -6347,11 +6345,11 @@
       </c>
       <c r="H49" s="115" t="str">
         <f t="shared" si="16"/>
-        <v>GBPFUT3MU8_Quote</v>
+        <v>GBPFUT3MZ8_Quote</v>
       </c>
       <c r="I49" s="115" t="str">
         <f t="shared" si="17"/>
-        <v>GBPFUT3MU8ConvAdj_Quote</v>
+        <v>GBPFUT3MZ8ConvAdj_Quote</v>
       </c>
       <c r="J49" s="62"/>
       <c r="L49" s="9" t="str">
@@ -6428,7 +6426,7 @@
       </c>
       <c r="C50" s="61" t="str">
         <f>_xll.qlIMMNextCode(C49,B50,Trigger)</f>
-        <v>Z8</v>
+        <v>H9</v>
       </c>
       <c r="D50" s="121"/>
       <c r="E50" s="121"/>
@@ -6439,11 +6437,11 @@
       </c>
       <c r="H50" s="115" t="str">
         <f t="shared" si="16"/>
-        <v>GBPFUT3MZ8_Quote</v>
+        <v>GBPFUT3MH9_Quote</v>
       </c>
       <c r="I50" s="115" t="str">
         <f t="shared" si="17"/>
-        <v>GBPFUT3MZ8ConvAdj_Quote</v>
+        <v>GBPFUT3MH9ConvAdj_Quote</v>
       </c>
       <c r="J50" s="62"/>
       <c r="L50" s="9" t="str">
@@ -6520,7 +6518,7 @@
       </c>
       <c r="C51" s="61" t="str">
         <f>_xll.qlIMMNextCode(C50,B51,Trigger)</f>
-        <v>H9</v>
+        <v>M9</v>
       </c>
       <c r="D51" s="121"/>
       <c r="E51" s="121"/>
@@ -6531,11 +6529,11 @@
       </c>
       <c r="H51" s="115" t="str">
         <f t="shared" si="16"/>
-        <v>GBPFUT3MH9_Quote</v>
+        <v>GBPFUT3MM9_Quote</v>
       </c>
       <c r="I51" s="115" t="str">
         <f t="shared" si="17"/>
-        <v>GBPFUT3MH9ConvAdj_Quote</v>
+        <v>GBPFUT3MM9ConvAdj_Quote</v>
       </c>
       <c r="J51" s="62"/>
       <c r="L51" s="10" t="str">
@@ -6612,7 +6610,7 @@
       </c>
       <c r="C52" s="61" t="str">
         <f>_xll.qlIMMNextCode(C51,B52,Trigger)</f>
-        <v>M9</v>
+        <v>U9</v>
       </c>
       <c r="D52" s="121"/>
       <c r="E52" s="121"/>
@@ -6623,11 +6621,11 @@
       </c>
       <c r="H52" s="115" t="str">
         <f t="shared" si="16"/>
-        <v>GBPFUT3MM9_Quote</v>
+        <v>GBPFUT3MU9_Quote</v>
       </c>
       <c r="I52" s="115" t="str">
         <f t="shared" si="17"/>
-        <v>GBPFUT3MM9ConvAdj_Quote</v>
+        <v>GBPFUT3MU9ConvAdj_Quote</v>
       </c>
       <c r="J52" s="62"/>
       <c r="L52" s="132" t="str">
@@ -6704,7 +6702,7 @@
       </c>
       <c r="C53" s="61" t="str">
         <f>_xll.qlIMMNextCode(C52,B53,Trigger)</f>
-        <v>U9</v>
+        <v>Z9</v>
       </c>
       <c r="D53" s="121"/>
       <c r="E53" s="121"/>
@@ -6715,11 +6713,11 @@
       </c>
       <c r="H53" s="115" t="str">
         <f t="shared" si="16"/>
-        <v>GBPFUT3MU9_Quote</v>
+        <v>GBPFUT3MZ9_Quote</v>
       </c>
       <c r="I53" s="115" t="str">
         <f t="shared" si="17"/>
-        <v>GBPFUT3MU9ConvAdj_Quote</v>
+        <v>GBPFUT3MZ9ConvAdj_Quote</v>
       </c>
       <c r="J53" s="62"/>
       <c r="L53" s="69" t="str">
@@ -6796,7 +6794,7 @@
       </c>
       <c r="C54" s="61" t="str">
         <f>_xll.qlIMMNextCode(C53,B54,Trigger)</f>
-        <v>Z9</v>
+        <v>H0</v>
       </c>
       <c r="D54" s="121"/>
       <c r="E54" s="121"/>
@@ -6807,11 +6805,11 @@
       </c>
       <c r="H54" s="115" t="str">
         <f t="shared" si="16"/>
-        <v>GBPFUT3MZ9_Quote</v>
+        <v>GBPFUT3MH0_Quote</v>
       </c>
       <c r="I54" s="115" t="str">
         <f t="shared" si="17"/>
-        <v>GBPFUT3MZ9ConvAdj_Quote</v>
+        <v>GBPFUT3MH0ConvAdj_Quote</v>
       </c>
       <c r="J54" s="62"/>
       <c r="L54" s="69" t="str">
@@ -6888,7 +6886,7 @@
       </c>
       <c r="C55" s="8" t="str">
         <f>_xll.qlIMMNextCode(C54,B55,Trigger)</f>
-        <v>H0</v>
+        <v>M0</v>
       </c>
       <c r="D55" s="122"/>
       <c r="E55" s="122"/>
@@ -6899,11 +6897,11 @@
       </c>
       <c r="H55" s="116" t="str">
         <f t="shared" si="16"/>
-        <v>GBPFUT3MH0_Quote</v>
+        <v>GBPFUT3MM0_Quote</v>
       </c>
       <c r="I55" s="116" t="str">
         <f t="shared" si="17"/>
-        <v>GBPFUT3MH0ConvAdj_Quote</v>
+        <v>GBPFUT3MM0ConvAdj_Quote</v>
       </c>
       <c r="J55" s="2"/>
       <c r="L55" s="69" t="str">
@@ -6984,7 +6982,7 @@
       </c>
       <c r="M56" s="137" t="str">
         <f t="shared" si="20"/>
-        <v>obj_00369#0000</v>
+        <v>obj_00333#0001</v>
       </c>
       <c r="N56" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M56,Trigger),"--")</f>
@@ -6992,7 +6990,7 @@
       </c>
       <c r="O56" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M56,Trigger),"--")</f>
-        <v>9.4600000000000014E-3</v>
+        <v>9.4400000000000005E-3</v>
       </c>
       <c r="P56" s="138" t="b">
         <v>1</v>
@@ -7005,11 +7003,11 @@
       </c>
       <c r="S56" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M56,Trigger),"--")</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="T56" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M56,Trigger),"--")</f>
-        <v>43010</v>
+        <v>43035</v>
       </c>
       <c r="V56" s="3" t="str">
         <f t="shared" si="18"/>
@@ -7080,7 +7078,7 @@
       </c>
       <c r="M57" s="137" t="str">
         <f t="shared" si="20"/>
-        <v>obj_00362#0000</v>
+        <v>obj_00335#0001</v>
       </c>
       <c r="N57" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M57,Trigger),"--")</f>
@@ -7088,7 +7086,7 @@
       </c>
       <c r="O57" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M57,Trigger),"--")</f>
-        <v>1.1280000000000002E-2</v>
+        <v>1.1219999999999999E-2</v>
       </c>
       <c r="P57" s="138" t="b">
         <v>1</v>
@@ -7101,11 +7099,11 @@
       </c>
       <c r="S57" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M57,Trigger),"--")</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="T57" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M57,Trigger),"--")</f>
-        <v>43374</v>
+        <v>43402</v>
       </c>
       <c r="V57" s="3" t="str">
         <f t="shared" si="18"/>
@@ -7176,7 +7174,7 @@
       </c>
       <c r="M58" s="137" t="str">
         <f t="shared" si="20"/>
-        <v>obj_0035c#0000</v>
+        <v>obj_00339#0001</v>
       </c>
       <c r="N58" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M58,Trigger),"--")</f>
@@ -7184,7 +7182,7 @@
       </c>
       <c r="O58" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M58,Trigger),"--")</f>
-        <v>1.295E-2</v>
+        <v>1.286E-2</v>
       </c>
       <c r="P58" s="138" t="b">
         <v>1</v>
@@ -7197,11 +7195,11 @@
       </c>
       <c r="S58" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M58,Trigger),"--")</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="T58" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M58,Trigger),"--")</f>
-        <v>43739</v>
+        <v>43766</v>
       </c>
       <c r="V58" s="3" t="str">
         <f t="shared" si="18"/>
@@ -7272,7 +7270,7 @@
       </c>
       <c r="M59" s="137" t="str">
         <f t="shared" si="20"/>
-        <v>obj_00361#0000</v>
+        <v>obj_00332#0001</v>
       </c>
       <c r="N59" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M59,Trigger),"--")</f>
@@ -7280,7 +7278,7 @@
       </c>
       <c r="O59" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M59,Trigger),"--")</f>
-        <v>1.435E-2</v>
+        <v>1.4279999999999999E-2</v>
       </c>
       <c r="P59" s="138" t="b">
         <v>1</v>
@@ -7293,11 +7291,11 @@
       </c>
       <c r="S59" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M59,Trigger),"--")</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="T59" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M59,Trigger),"--")</f>
-        <v>44105</v>
+        <v>44131</v>
       </c>
       <c r="V59" s="3" t="str">
         <f t="shared" si="18"/>
@@ -7368,7 +7366,7 @@
       </c>
       <c r="M60" s="137" t="str">
         <f t="shared" si="20"/>
-        <v>obj_00364#0000</v>
+        <v>obj_0033a#0001</v>
       </c>
       <c r="N60" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M60,Trigger),"--")</f>
@@ -7376,7 +7374,7 @@
       </c>
       <c r="O60" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M60,Trigger),"--")</f>
-        <v>1.5500000000000003E-2</v>
+        <v>1.5459999999999998E-2</v>
       </c>
       <c r="P60" s="138" t="b">
         <v>1</v>
@@ -7389,11 +7387,11 @@
       </c>
       <c r="S60" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M60,Trigger),"--")</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="T60" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M60,Trigger),"--")</f>
-        <v>44470</v>
+        <v>44496</v>
       </c>
       <c r="V60" s="3" t="str">
         <f t="shared" si="18"/>
@@ -7464,7 +7462,7 @@
       </c>
       <c r="M61" s="137" t="str">
         <f t="shared" si="20"/>
-        <v>obj_0036a#0000</v>
+        <v>obj_00336#0001</v>
       </c>
       <c r="N61" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M61,Trigger),"--")</f>
@@ -7472,7 +7470,7 @@
       </c>
       <c r="O61" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M61,Trigger),"--")</f>
-        <v>1.6449999999999999E-2</v>
+        <v>1.644E-2</v>
       </c>
       <c r="P61" s="138" t="b">
         <v>1</v>
@@ -7485,11 +7483,11 @@
       </c>
       <c r="S61" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M61,Trigger),"--")</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="T61" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M61,Trigger),"--")</f>
-        <v>44837</v>
+        <v>44861</v>
       </c>
       <c r="V61" s="3" t="str">
         <f t="shared" si="18"/>
@@ -7555,7 +7553,7 @@
       </c>
       <c r="J62" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H62,0,B62,Calendar,D62,E62,F62,G62,I62,C62,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00369#0000</v>
+        <v>obj_00333#0001</v>
       </c>
       <c r="L62" s="69" t="str">
         <f t="shared" si="19"/>
@@ -7563,7 +7561,7 @@
       </c>
       <c r="M62" s="137" t="str">
         <f t="shared" si="20"/>
-        <v>obj_00363#0000</v>
+        <v>obj_00338#0001</v>
       </c>
       <c r="N62" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M62,Trigger),"--")</f>
@@ -7571,7 +7569,7 @@
       </c>
       <c r="O62" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M62,Trigger),"--")</f>
-        <v>1.7230000000000002E-2</v>
+        <v>1.7269999999999997E-2</v>
       </c>
       <c r="P62" s="138" t="b">
         <v>1</v>
@@ -7584,11 +7582,11 @@
       </c>
       <c r="S62" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M62,Trigger),"--")</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="T62" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M62,Trigger),"--")</f>
-        <v>45201</v>
+        <v>45226</v>
       </c>
       <c r="V62" s="3" t="str">
         <f t="shared" si="18"/>
@@ -7654,7 +7652,7 @@
       </c>
       <c r="J63" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H63,0,B63,Calendar,D63,E63,F63,G63,I63,C63,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00362#0000</v>
+        <v>obj_00335#0001</v>
       </c>
       <c r="L63" s="69" t="str">
         <f t="shared" si="19"/>
@@ -7662,7 +7660,7 @@
       </c>
       <c r="M63" s="137" t="str">
         <f t="shared" si="20"/>
-        <v>obj_0035a#0000</v>
+        <v>obj_00334#0001</v>
       </c>
       <c r="N63" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M63,Trigger),"--")</f>
@@ -7670,7 +7668,7 @@
       </c>
       <c r="O63" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M63,Trigger),"--")</f>
-        <v>1.7890000000000003E-2</v>
+        <v>1.797E-2</v>
       </c>
       <c r="P63" s="138" t="b">
         <v>1</v>
@@ -7683,11 +7681,11 @@
       </c>
       <c r="S63" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M63,Trigger),"--")</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="T63" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M63,Trigger),"--")</f>
-        <v>45566</v>
+        <v>45593</v>
       </c>
       <c r="V63" s="3" t="str">
         <f t="shared" si="18"/>
@@ -7753,7 +7751,7 @@
       </c>
       <c r="J64" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H64,0,B64,Calendar,D64,E64,F64,G64,I64,C64,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035c#0000</v>
+        <v>obj_00339#0001</v>
       </c>
       <c r="L64" s="69" t="str">
         <f t="shared" si="19"/>
@@ -7761,7 +7759,7 @@
       </c>
       <c r="M64" s="137" t="str">
         <f t="shared" si="20"/>
-        <v>obj_00367#0000</v>
+        <v>obj_0032d#0001</v>
       </c>
       <c r="N64" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M64,Trigger),"--")</f>
@@ -7769,7 +7767,7 @@
       </c>
       <c r="O64" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M64,Trigger),"--")</f>
-        <v>1.8440000000000002E-2</v>
+        <v>1.8550000000000001E-2</v>
       </c>
       <c r="P64" s="138" t="b">
         <v>1</v>
@@ -7782,11 +7780,11 @@
       </c>
       <c r="S64" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M64,Trigger),"--")</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="T64" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M64,Trigger),"--")</f>
-        <v>45931</v>
+        <v>45957</v>
       </c>
       <c r="V64" s="3" t="str">
         <f t="shared" si="18"/>
@@ -7852,7 +7850,7 @@
       </c>
       <c r="J65" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H65,0,B65,Calendar,D65,E65,F65,G65,I65,C65,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00361#0000</v>
+        <v>obj_00332#0001</v>
       </c>
       <c r="L65" s="69" t="str">
         <f t="shared" si="19"/>
@@ -7951,7 +7949,7 @@
       </c>
       <c r="J66" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H66,0,B66,Calendar,D66,E66,F66,G66,I66,C66,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00364#0000</v>
+        <v>obj_0033a#0001</v>
       </c>
       <c r="L66" s="69" t="str">
         <f t="shared" si="19"/>
@@ -7959,7 +7957,7 @@
       </c>
       <c r="M66" s="138" t="str">
         <f t="shared" si="20"/>
-        <v>obj_0035f#0000</v>
+        <v>obj_0032c#0001</v>
       </c>
       <c r="N66" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M66,Trigger),"--")</f>
@@ -7967,7 +7965,7 @@
       </c>
       <c r="O66" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M66,Trigger),"--")</f>
-        <v>1.9349999999999999E-2</v>
+        <v>1.9519999999999999E-2</v>
       </c>
       <c r="P66" s="138" t="b">
         <v>1</v>
@@ -7980,11 +7978,11 @@
       </c>
       <c r="S66" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M66,Trigger),"--")</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="T66" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M66,Trigger),"--")</f>
-        <v>46661</v>
+        <v>46687</v>
       </c>
       <c r="V66" s="3" t="str">
         <f t="shared" si="18"/>
@@ -8050,7 +8048,7 @@
       </c>
       <c r="J67" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H67,0,B67,Calendar,D67,E67,F67,G67,I67,C67,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036a#0000</v>
+        <v>obj_00336#0001</v>
       </c>
       <c r="L67" s="69" t="str">
         <f t="shared" si="19"/>
@@ -8149,7 +8147,7 @@
       </c>
       <c r="J68" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H68,0,B68,Calendar,D68,E68,F68,G68,I68,C68,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00363#0000</v>
+        <v>obj_00338#0001</v>
       </c>
       <c r="L68" s="69" t="str">
         <f t="shared" si="19"/>
@@ -8248,7 +8246,7 @@
       </c>
       <c r="J69" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H69,0,B69,Calendar,D69,E69,F69,G69,I69,C69,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035a#0000</v>
+        <v>obj_00334#0001</v>
       </c>
       <c r="L69" s="69" t="str">
         <f t="shared" si="19"/>
@@ -8256,7 +8254,7 @@
       </c>
       <c r="M69" s="138" t="str">
         <f t="shared" si="20"/>
-        <v>obj_00359#0000</v>
+        <v>obj_00331#0001</v>
       </c>
       <c r="N69" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M69,Trigger),"--")</f>
@@ -8264,7 +8262,7 @@
       </c>
       <c r="O69" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M69,Trigger),"--")</f>
-        <v>2.0240000000000001E-2</v>
+        <v>2.0480000000000002E-2</v>
       </c>
       <c r="P69" s="138" t="b">
         <v>1</v>
@@ -8277,11 +8275,11 @@
       </c>
       <c r="S69" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M69,Trigger),"--")</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="T69" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M69,Trigger),"--")</f>
-        <v>47757</v>
+        <v>47784</v>
       </c>
       <c r="V69" s="3" t="str">
         <f t="shared" si="23"/>
@@ -8347,7 +8345,7 @@
       </c>
       <c r="J70" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H70,0,B70,Calendar,D70,E70,F70,G70,I70,C70,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00367#0000</v>
+        <v>obj_0032d#0001</v>
       </c>
       <c r="L70" s="69" t="str">
         <f t="shared" si="19"/>
@@ -8542,7 +8540,7 @@
       </c>
       <c r="J72" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H72,0,B72,Calendar,D72,E72,F72,G72,I72,C72,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035f#0000</v>
+        <v>obj_0032c#0001</v>
       </c>
       <c r="L72" s="69" t="str">
         <f t="shared" si="19"/>
@@ -8742,7 +8740,7 @@
       </c>
       <c r="M74" s="138" t="str">
         <f t="shared" si="20"/>
-        <v>obj_0035e#0000</v>
+        <v>obj_00329#0001</v>
       </c>
       <c r="N74" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M74,Trigger),"--")</f>
@@ -8750,7 +8748,7 @@
       </c>
       <c r="O74" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M74,Trigger),"--")</f>
-        <v>2.0910000000000002E-2</v>
+        <v>2.1219999999999999E-2</v>
       </c>
       <c r="P74" s="138" t="b">
         <v>1</v>
@@ -8763,11 +8761,11 @@
       </c>
       <c r="S74" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M74,Trigger),"--")</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="T74" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M74,Trigger),"--")</f>
-        <v>49583</v>
+        <v>49611</v>
       </c>
       <c r="V74" s="3" t="str">
         <f t="shared" si="23"/>
@@ -8833,7 +8831,7 @@
       </c>
       <c r="J75" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H75,0,B75,Calendar,D75,E75,F75,G75,I75,C75,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00359#0000</v>
+        <v>obj_00331#0001</v>
       </c>
       <c r="L75" s="69" t="str">
         <f t="shared" si="19"/>
@@ -9225,7 +9223,7 @@
       </c>
       <c r="M79" s="138" t="str">
         <f t="shared" si="20"/>
-        <v>obj_0035b#0000</v>
+        <v>obj_00337#0001</v>
       </c>
       <c r="N79" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M79,Trigger),"--")</f>
@@ -9233,7 +9231,7 @@
       </c>
       <c r="O79" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M79,Trigger),"--")</f>
-        <v>2.0970000000000003E-2</v>
+        <v>2.1310000000000003E-2</v>
       </c>
       <c r="P79" s="138" t="b">
         <v>1</v>
@@ -9246,11 +9244,11 @@
       </c>
       <c r="S79" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M79,Trigger),"--")</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="T79" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M79,Trigger),"--")</f>
-        <v>51410</v>
+        <v>51438</v>
       </c>
       <c r="V79" s="3" t="str">
         <f t="shared" si="23"/>
@@ -9316,7 +9314,7 @@
       </c>
       <c r="J80" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H80,0,B80,Calendar,D80,E80,F80,G80,I80,C80,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035e#0000</v>
+        <v>obj_00329#0001</v>
       </c>
       <c r="L80" s="69" t="str">
         <f t="shared" si="19"/>
@@ -9708,7 +9706,7 @@
       </c>
       <c r="M84" s="138" t="str">
         <f t="shared" si="20"/>
-        <v>obj_00368#0000</v>
+        <v>obj_00330#0001</v>
       </c>
       <c r="N84" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M84,Trigger),"--")</f>
@@ -9716,7 +9714,7 @@
       </c>
       <c r="O84" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M84,Trigger),"--")</f>
-        <v>2.0910000000000002E-2</v>
+        <v>2.1259999999999998E-2</v>
       </c>
       <c r="P84" s="138" t="b">
         <v>1</v>
@@ -9729,11 +9727,11 @@
       </c>
       <c r="S84" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M84,Trigger),"--")</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="T84" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M84,Trigger),"--")</f>
-        <v>53237</v>
+        <v>53262</v>
       </c>
       <c r="V84" s="3" t="str">
         <f t="shared" si="23"/>
@@ -9799,7 +9797,7 @@
       </c>
       <c r="J85" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H85,0,B85,Calendar,D85,E85,F85,G85,I85,C85,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035b#0000</v>
+        <v>obj_00337#0001</v>
       </c>
       <c r="L85" s="69" t="str">
         <f t="shared" si="19"/>
@@ -9903,7 +9901,7 @@
       </c>
       <c r="M86" s="138" t="str">
         <f t="shared" si="20"/>
-        <v>obj_00360#0000</v>
+        <v>obj_0032f#0001</v>
       </c>
       <c r="N86" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M86,Trigger),"--")</f>
@@ -9911,7 +9909,7 @@
       </c>
       <c r="O86" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M86,Trigger),"--")</f>
-        <v>2.0420000000000004E-2</v>
+        <v>2.0760000000000001E-2</v>
       </c>
       <c r="P86" s="138" t="b">
         <v>1</v>
@@ -9924,11 +9922,11 @@
       </c>
       <c r="S86" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M86,Trigger),"--")</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="T86" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M86,Trigger),"--")</f>
-        <v>56888</v>
+        <v>56914</v>
       </c>
       <c r="V86" s="3" t="str">
         <f t="shared" si="23"/>
@@ -10098,7 +10096,7 @@
       </c>
       <c r="M88" s="138" t="str">
         <f t="shared" si="20"/>
-        <v>obj_00357#0000</v>
+        <v>obj_0032b#0001</v>
       </c>
       <c r="N88" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M88,Trigger),"--")</f>
@@ -10106,7 +10104,7 @@
       </c>
       <c r="O88" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M88,Trigger),"--")</f>
-        <v>1.9970000000000002E-2</v>
+        <v>2.0310000000000002E-2</v>
       </c>
       <c r="P88" s="138" t="b">
         <v>1</v>
@@ -10119,11 +10117,11 @@
       </c>
       <c r="S88" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M88,Trigger),"--")</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="T88" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M88,Trigger),"--")</f>
-        <v>60541</v>
+        <v>60567</v>
       </c>
       <c r="V88" s="3" t="str">
         <f t="shared" si="23"/>
@@ -10194,7 +10192,7 @@
       </c>
       <c r="M89" s="141" t="str">
         <f t="shared" si="20"/>
-        <v>obj_00365#0000</v>
+        <v>obj_0033c#0001</v>
       </c>
       <c r="N89" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M89,Trigger),"--")</f>
@@ -10202,7 +10200,7 @@
       </c>
       <c r="O89" s="152">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M89,Trigger),"--")</f>
-        <v>1.9910000000000001E-2</v>
+        <v>2.0240000000000001E-2</v>
       </c>
       <c r="P89" s="141" t="b">
         <v>1</v>
@@ -10215,11 +10213,11 @@
       </c>
       <c r="S89" s="150">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M89,Trigger),"--")</f>
-        <v>42278</v>
+        <v>42304</v>
       </c>
       <c r="T89" s="150">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M89,Trigger),"--")</f>
-        <v>64193</v>
+        <v>64220</v>
       </c>
       <c r="V89" s="5" t="str">
         <f t="shared" si="23"/>
@@ -10285,7 +10283,7 @@
       </c>
       <c r="J90" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H90,0,B90,Calendar,D90,E90,F90,G90,I90,C90,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00368#0000</v>
+        <v>obj_00330#0001</v>
       </c>
       <c r="AD90" s="158"/>
     </row>
@@ -10354,7 +10352,7 @@
       </c>
       <c r="J92" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H92,0,B92,Calendar,D92,E92,F92,G92,I92,C92,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00360#0000</v>
+        <v>obj_0032f#0001</v>
       </c>
       <c r="AD92" s="158"/>
     </row>
@@ -10423,7 +10421,7 @@
       </c>
       <c r="J94" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H94,0,B94,Calendar,D94,E94,F94,G94,I94,C94,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00357#0000</v>
+        <v>obj_0032b#0001</v>
       </c>
       <c r="AD94" s="158"/>
     </row>
@@ -10459,7 +10457,7 @@
       </c>
       <c r="J95" s="2" t="str">
         <f>_xll.qlSwapRateHelper2(,H95,0,B95,Calendar,D95,E95,F95,G95,I95,C95,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00365#0000</v>
+        <v>obj_0033c#0001</v>
       </c>
       <c r="AD95" s="158"/>
     </row>
